--- a/testData/Automation-Sheet.xlsx
+++ b/testData/Automation-Sheet.xlsx
@@ -956,7 +956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1912,7 +1914,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
